--- a/cp-add-ip-statements/ig/StructureDefinition-eclaire-contact-address.xlsx
+++ b/cp-add-ip-statements/ig/StructureDefinition-eclaire-contact-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T12:29:56+00:00</t>
+    <t>2025-07-17T12:32:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
